--- a/data/income_statement/3digits/total/465_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/465_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>465-Wholesale of information and communication equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>465-Wholesale of information and communication equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>31561893.76059</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>34295927.88319</v>
+        <v>34299979.48093</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>43266129.73195</v>
+        <v>43284033.68191</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>45740963.84586</v>
+        <v>45763833.16283999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>50772585.83712001</v>
+        <v>50846727.20302001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>55754084.53273001</v>
+        <v>55913008.42057001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>65697335.9087</v>
+        <v>66656671.98652001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>64611201.13254</v>
+        <v>70776544.18334</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>83226760.63148001</v>
+        <v>83226760.63147999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>108522585.54879</v>
+        <v>108736079.6838</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>116667283.30577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>117579554.24339</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>196639390.612</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>29684037.70253</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>32400116.09207</v>
+        <v>32404011.63401</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>40637638.12290999</v>
+        <v>40655300.67933</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>43138523.22629</v>
+        <v>43159708.29008999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>48180127.46870999</v>
+        <v>48237830.49723</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>51352634.76688</v>
+        <v>51510655.66625</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>60462463.51261999</v>
+        <v>61258390.87968</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>60617972.18245</v>
+        <v>66612149.19226</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>78270025.17694001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>102655490.83137</v>
+        <v>102803972.73116</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>109406114.74044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>110347165.51571</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>184524941.534</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1184149.80655</v>
@@ -1034,193 +950,218 @@
         <v>1140312.1763</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1566683.98815</v>
+        <v>1566803.76415</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1504246.28752</v>
+        <v>1505706.72983</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1301810.91163</v>
+        <v>1317756.7297</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1654040.15358</v>
+        <v>1654236.22825</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2111347.48728</v>
+        <v>2239259.29564</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1831050.37837</v>
+        <v>1946895.81031</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2690834.61047</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3639576.44425</v>
+        <v>3703628.31073</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4934758.20425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4890982.74275</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9022593.572000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>693706.2515099999</v>
+        <v>693706.25151</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>755499.61482</v>
+        <v>755655.6706199999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1061807.62089</v>
+        <v>1061929.23843</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1098194.33205</v>
+        <v>1098418.14292</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1290647.45678</v>
+        <v>1291139.97609</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2747409.61227</v>
+        <v>2748116.52607</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3123524.9088</v>
+        <v>3159021.8112</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2162178.57172</v>
+        <v>2217499.18077</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>2265900.84407</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2227518.27317</v>
+        <v>2228478.64191</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2326410.36108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2341405.98493</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3091855.506</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1970698.20282</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1609579.74936</v>
+        <v>1609688.74345</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2196782.05379</v>
+        <v>2197116.51752</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2589759.547730001</v>
+        <v>2590363.09703</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3173204.55284</v>
+        <v>3174240.18041</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3786627.46453</v>
+        <v>3788454.688180001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5205926.82475</v>
+        <v>5279429.66862</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3656574.93049</v>
+        <v>4339740.8585</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4781166.676480001</v>
+        <v>4781166.67648</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5901082.285730001</v>
+        <v>5901231.935029999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6124850.754729999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6126815.756639999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7446800.464</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>523597.00262</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>594157.39804</v>
+        <v>594266.3921300001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>908457.50601</v>
+        <v>908762.6786099999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1291508.70568</v>
+        <v>1292110.38998</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1578480.19455</v>
+        <v>1579465.00808</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1527769.89737</v>
+        <v>1529471.25871</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2464354.7265</v>
+        <v>2516875.61377</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1809737.6593</v>
+        <v>1882391.43447</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>2366500.6751</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2723316.76992</v>
+        <v>2723372.02235</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3055185.75659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3057015.31842</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3914325.983</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1293325.5021</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>867356.88692</v>
+        <v>867356.8869200002</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1044241.10156</v>
+        <v>1044262.41156</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1183204.18564</v>
+        <v>1183206.05064</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1424776.52729</v>
+        <v>1424827.34133</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1309231.40708</v>
+        <v>1309325.30556</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1494380.1869</v>
+        <v>1515353.35941</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1178380.23723</v>
+        <v>1747408.73184</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1635547.41505</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1875226.03283</v>
+        <v>1875320.3547</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1849373.8873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1849489.61698</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2038857.53</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>153775.6981</v>
@@ -1229,7 +1170,7 @@
         <v>148065.4644</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>244083.44622</v>
+        <v>244091.42735</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>115046.65641</v>
@@ -1238,106 +1179,121 @@
         <v>169947.831</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>949626.1600800001</v>
+        <v>949658.12391</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1247191.91135</v>
+        <v>1247200.69544</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>668457.0339599999</v>
+        <v>709940.6921900001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>779118.5863299998</v>
+        <v>779118.58633</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1302539.48298</v>
+        <v>1302539.55798</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1220291.11084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1220310.82124</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1493616.951</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>29591195.55777</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>32686348.13383</v>
+        <v>32690290.73748</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>41069347.67816</v>
+        <v>41086917.16439</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>43151204.29813001</v>
+        <v>43173470.06580999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>47599381.28428</v>
+        <v>47672487.02261</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>51967457.06820001</v>
+        <v>52124553.73239001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>60491409.08395</v>
+        <v>61377242.31790001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>60954626.20205</v>
+        <v>66436803.32484</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>78445593.95500001</v>
+        <v>78445593.955</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>102621503.26306</v>
+        <v>102834847.74877</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>110542432.55104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>111452738.48675</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>189192590.148</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>26662494.22238</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>29452098.18421</v>
+        <v>29455874.18562</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>36688902.33481</v>
+        <v>36705507.93404</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>38354923.06561</v>
+        <v>38375009.64206</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>42404878.65320001</v>
+        <v>42464670.78975999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>45530605.92579</v>
+        <v>45676138.74923</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>52663902.68919</v>
+        <v>53400668.55319</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>53252982.92582999</v>
+        <v>57818019.08357</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>67953084.04931</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>87864727.08492999</v>
+        <v>88071183.16507998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>93827211.39805999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>94657331.42395</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>167110163.909</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>423751.92488</v>
@@ -1346,115 +1302,130 @@
         <v>286775.61684</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1460199.40206</v>
+        <v>1460281.72306</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>759207.03073</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1978843.08019</v>
+        <v>1999649.52512</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>326554.5976</v>
+        <v>440556.7921</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>326068.82833</v>
+        <v>328611.6576</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>426520.10985</v>
+        <v>439998.57036</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>859598.17056</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>924132.8517</v>
+        <v>926727.4760899999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>958702.7171700001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1010989.59485</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1160300.988</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>25499701.14598</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>28300026.68914</v>
+        <v>28303787.3828</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>34255591.58396</v>
+        <v>34271968.04403</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>36625350.7406</v>
+        <v>36645287.25955001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>39429318.95773</v>
+        <v>39466265.37739</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>43959350.4691</v>
+        <v>43990195.16585</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>51085993.31908</v>
+        <v>51484541.21197</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>50990398.97495002</v>
+        <v>55504793.92968</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>64806955.92103999</v>
+        <v>64806955.92104</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>84129747.55152</v>
+        <v>84267756.94241001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>87349295.56799001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>88104282.45116</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>157756265.214</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>727354.9793</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>845754.34048</v>
+        <v>845769.64823</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>948268.4395399999</v>
+        <v>948415.2577000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>941838.9408300001</v>
+        <v>941988.99833</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>972091.8510400001</v>
+        <v>974131.12301</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1190311.85495</v>
+        <v>1190997.78714</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1197416.04339</v>
+        <v>1533044.83543</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1791396.52026</v>
+        <v>1828558.21407</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2197612.0505</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2712320.11997</v>
+        <v>2778062.0449</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5448885.972399999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5471508.33333</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7974069.977</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11686.17222</v>
@@ -1475,103 +1446,118 @@
         <v>54389.00414</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>54424.49839</v>
+        <v>54470.84819</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>44667.32077</v>
+        <v>44668.36946</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>88917.90721</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>98526.56173999999</v>
+        <v>98636.70168</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>70327.14049999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>70551.04461</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>219527.73</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2928701.335389999</v>
+        <v>2928701.33539</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3234249.949620001</v>
+        <v>3234416.55186</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4380445.343350001</v>
+        <v>4381409.230350001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4796281.23252</v>
+        <v>4798460.42375</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5194502.63108</v>
+        <v>5207816.232849999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6436851.14241</v>
+        <v>6448414.98316</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7827506.394760001</v>
+        <v>7976573.764709999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7701643.27622</v>
+        <v>8618784.24127</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>10492509.90569</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>14756776.17813</v>
+        <v>14763664.58369</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16715221.15298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16795407.0628</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>22082426.239</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2078216.96557</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2256864.56097</v>
+        <v>2257498.43691</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2868743.93222</v>
+        <v>2870184.7816</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3233988.7651</v>
+        <v>3235978.85306</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3590083.082770001</v>
+        <v>3599089.70718</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4223289.744320001</v>
+        <v>4230129.66709</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4877472.77449</v>
+        <v>4965895.84565</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5099106.80454</v>
+        <v>5744500.491969999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>6717667.69839</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9898154.829399999</v>
+        <v>9913141.810770001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10865101.98382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10910091.69814</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12729128.741</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>36188.89861</v>
@@ -1589,145 +1575,165 @@
         <v>27545.36704</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>33366.72676999999</v>
+        <v>33367.19899</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>32917.11495</v>
+        <v>35858.91823</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>44108.70073</v>
+        <v>44102.64799</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>72330.27739</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>85390.43987</v>
+        <v>85419.05893000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>211034.27901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>211711.70804</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>146466.258</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1008244.95873</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1072057.26052</v>
+        <v>1072568.77603</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1476011.67381</v>
+        <v>1477086.10794</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1754870.92302</v>
+        <v>1756413.75806</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1889450.13746</v>
+        <v>1895289.1528</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2286749.4059</v>
+        <v>2292434.17885</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2662483.28791</v>
+        <v>2711878.50521</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2689878.5127</v>
+        <v>3051278.38464</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3723006.52209</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6235920.811749999</v>
+        <v>6237798.44694</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6560244.13618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6570044.499020001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7940097.225</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1033783.10823</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1161585.32545</v>
+        <v>1161707.68588</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1371338.86248</v>
+        <v>1371705.27773</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1454553.14983</v>
+        <v>1455000.40275</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1673087.57827</v>
+        <v>1676255.18734</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1903173.61165</v>
+        <v>1904328.28925</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2182072.37163</v>
+        <v>2218158.42221</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2365119.591109999</v>
+        <v>2649119.45934</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2922330.89891</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3576843.577780001</v>
+        <v>3589924.3049</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4093823.56863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4128335.49108</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4642565.258</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>850484.36982</v>
+        <v>850484.3698199999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>977385.3886500001</v>
+        <v>976918.1149500001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1511701.41113</v>
+        <v>1511224.44875</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1562292.46742</v>
+        <v>1562481.57069</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1604419.54831</v>
+        <v>1608726.52567</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2213561.39809</v>
+        <v>2218285.31607</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2950033.62027</v>
+        <v>3010677.91906</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2602536.47168</v>
+        <v>2874283.7493</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3774842.2073</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4858621.348730001</v>
+        <v>4850522.77292</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5850119.16916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5885315.364659999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9353297.498</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1254942.82153</v>
@@ -1736,37 +1742,42 @@
         <v>994250.7062</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1790598.3875</v>
+        <v>1790955.8205</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1192023.50034</v>
+        <v>1192524.6919</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2021028.64551</v>
+        <v>2024442.40552</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3365369.12114</v>
+        <v>3366332.62264</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4472905.481370001</v>
+        <v>4556638.203520001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6598122.97974</v>
+        <v>6883693.49921</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>12556976.53343</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>21932838.98164</v>
+        <v>21968851.58969</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4960203.240599999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4969141.072469999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8581280.471999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>13193.43555</v>
@@ -1790,22 +1801,27 @@
         <v>24780.84402</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>49407.09835</v>
+        <v>49407.09834999999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>35211.20253</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>165117.93183</v>
+        <v>165492.33183</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>99757.83626000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>99757.83626</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>32660.437</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5906.98469</v>
@@ -1835,55 +1851,65 @@
         <v>67484.93573</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>52389.62901</v>
+        <v>52389.62900999999</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>39662.38654</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>10103.49</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>56513.76885999999</v>
+        <v>56513.76886</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>41767.01891999999</v>
+        <v>41767.01892</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>63438.92804999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>73569.65865000001</v>
+        <v>73570.28165</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>58808.81034999999</v>
+        <v>59099.25536</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>93635.09117999999</v>
+        <v>93677.82312</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>125396.39516</v>
+        <v>128564.50535</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>132837.66754</v>
+        <v>141168.94282</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>152413.37379</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>347470.17018</v>
+        <v>348375.51616</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>461506.26792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>462171.99419</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>440366.369</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>31531.61872</v>
@@ -1904,31 +1930,36 @@
         <v>16796.91691</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>30041.98532</v>
+        <v>30111.414</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>71486.34195999999</v>
+        <v>72698.37389999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>46553.32044</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>43391.97262</v>
+        <v>45896.96707999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>45125.67617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>45210.59179999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>69290.917</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>69575.57454</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>92031.99305999999</v>
+        <v>92031.99306000001</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>98696.58298000001</v>
@@ -1943,25 +1974,30 @@
         <v>65355.51804</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>34218.03037</v>
+        <v>34250.70237000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>70076.19851999999</v>
+        <v>79351.89878999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>25305.07833</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>33112.86602</v>
+        <v>33174.80328</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>58199.66367</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>40458.625</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>5911.015780000001</v>
@@ -1970,37 +2006,42 @@
         <v>8903.109390000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>90855.96232999999</v>
+        <v>90860.76533000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>21081.81735</v>
+        <v>21092.44835</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>11242.73183</v>
+        <v>11263.71083</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>15119.68997</v>
+        <v>15164.53997</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>24432.70617</v>
+        <v>26116.30116</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>9102.993990000001</v>
+        <v>30309.53017</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>16498.46577</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8010.804160000001</v>
+        <v>8351.054189999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>25009.01236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>25254.84778</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>59030.601</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>938894.6915</v>
@@ -2009,37 +2050,42 @@
         <v>675424.55551</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1344057.86772</v>
+        <v>1344214.64572</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>798812.1807799999</v>
+        <v>799301.5573399999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1724613.39399</v>
+        <v>1727712.21032</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2969131.65921</v>
+        <v>2969928.92423</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4011830.32146</v>
+        <v>4085831.81373</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6046041.506429999</v>
+        <v>6251175.49184</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>11933397.55126</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>20846655.11597</v>
+        <v>20877371.76141001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3707621.247329999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3715117.09312</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7473329.495</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>686.66628</v>
@@ -2048,7 +2094,7 @@
         <v>481.32877</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1118.47095</v>
+        <v>1282.62295</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>1151.95177</v>
@@ -2057,13 +2103,13 @@
         <v>4609.67163</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>8752.74813</v>
+        <v>8752.748129999998</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>11884.45734</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>9990.310650000003</v>
+        <v>10405.89679</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>8965.64869</v>
@@ -2072,13 +2118,18 @@
         <v>13022.72202</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>67951.45961000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>67951.76082</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>37488.588</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>24.55567</v>
@@ -2102,7 +2153,7 @@
         <v>80.89086</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>3.9</v>
+        <v>311.59227</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>177.70796</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>29.5228</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>70.611</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>132704.50994</v>
@@ -2126,88 +2182,98 @@
         <v>129683.3684</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>155802.05666</v>
+        <v>155833.75666</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>110759.65585</v>
+        <v>110760.21685</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>122116.43884</v>
+        <v>122119.95851</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>176984.67975</v>
+        <v>177063.33429</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>202890.35574</v>
+        <v>207667.77976</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>195956.48747</v>
+        <v>235644.19945</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>270969.24893</v>
+        <v>270969.2489299999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>423600.8008499999</v>
+        <v>424709.8357299999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>455340.16794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>455785.37549</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>418481.339</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1228337.91475</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>983822.8465400002</v>
+        <v>983822.8465400001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1712760.39107</v>
+        <v>1713132.71907</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1104972.22082</v>
+        <v>1105380.78533</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2222996.86397</v>
+        <v>2228060.98859</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3477445.2554</v>
+        <v>3478685.433980001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4858908.043400001</v>
+        <v>4929638.83903</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6610572.3868</v>
+        <v>6828991.435640001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>12440638.12542</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>21652027.0199</v>
+        <v>21678687.28443</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4672411.03275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4682129.66526</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8415147.882999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>80455.15848</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>91934.13886000001</v>
+        <v>91934.13886000002</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>78271.60582</v>
+        <v>78271.60582000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>99328.47068</v>
+        <v>99328.47068000001</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>122227.93235</v>
@@ -2216,25 +2282,30 @@
         <v>129569.30022</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>133496.2722</v>
+        <v>133531.78309</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>153937.12022</v>
+        <v>155235.80364</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>130666.86573</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>138092.96314</v>
+        <v>138106.67402</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>272721.87121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>272892.51561</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>384316.267</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>137706.79272</v>
@@ -2249,31 +2320,36 @@
         <v>85373.84539</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>94541.52677</v>
+        <v>94541.52677000001</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>74109.87887</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>74486.68196</v>
+        <v>78427.93344999998</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>106116.24222</v>
+        <v>110461.41963</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>80625.52664999999</v>
+        <v>80625.52665</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>384911.68264</v>
+        <v>384922.9322999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>317675.72091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>317988.61893</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>358253.98</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>611.9250700000001</v>
@@ -2291,13 +2367,13 @@
         <v>1225.12171</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3038.72066</v>
+        <v>3038.720659999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2094.0727</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>9384.314619999999</v>
+        <v>9384.314620000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>24942.80037</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>6772.51834</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>22984.495</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>936828.4942499999</v>
+        <v>936828.49425</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>675188.06167</v>
+        <v>675188.0616700001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1353058.67225</v>
+        <v>1353431.00025</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>749431.42149</v>
+        <v>749675.164</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1874043.15945</v>
+        <v>1879107.28407</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3080883.82654</v>
+        <v>3082123.96562</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4403491.2603</v>
+        <v>4464285.029689999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6150788.53022</v>
+        <v>6362369.36142</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>12086790.15569</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>20948524.88768</v>
+        <v>20975007.88833</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3849089.53747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3858190.99074</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7402791.345</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>529.54068</v>
@@ -2363,19 +2449,19 @@
         <v>988.3339100000001</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>780.4994600000001</v>
+        <v>944.65146</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>6849.5327</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>8095.046659999999</v>
+        <v>8095.086159999999</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>13612.08751</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>11442.21857</v>
+        <v>11756.32546</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>8168.29962</v>
@@ -2384,19 +2470,24 @@
         <v>19933.58364</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>63303.8731</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>63373.48816</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>43092.206</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>22.71221</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>34.83542</v>
+        <v>34.83542000000001</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>30.5143</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>150.19766</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>7.156</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>72183.29134000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>86310.04898000002</v>
+        <v>86310.04898000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>139196.56515</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>162227.24843</v>
+        <v>162227.91843</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>124052.99265</v>
@@ -2450,103 +2546,118 @@
         <v>181747.70418</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>226966.05421</v>
+        <v>232926.31807</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>178903.96095</v>
+        <v>179784.21087</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>109444.46742</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>149471.47614</v>
+        <v>149623.77948</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>162697.31406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>162761.33582</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>203702.434</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>396943.74411</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>365107.5598800001</v>
+        <v>365293.89937</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>586726.8025600001</v>
+        <v>587007.81539</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>648260.0972600001</v>
+        <v>648740.70126</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>701997.8189999999</v>
+        <v>702883.84363</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>899682.44787</v>
+        <v>900615.51057</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1267189.57897</v>
+        <v>1278173.25527</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1040616.6259</v>
+        <v>1088009.84772</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1297185.70897</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1927124.18848</v>
+        <v>1928113.93599</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1775521.67572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1777817.57982</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1757900.932</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>381426.13647</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>348268.62381</v>
+        <v>348454.9633</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>564983.6659100001</v>
+        <v>565264.67874</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>624049.8277</v>
+        <v>624530.4317</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>687510.38901</v>
+        <v>688396.41364</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>872624.84983</v>
+        <v>873557.91253</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1235968.92109</v>
+        <v>1244800.82175</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1007656.72435</v>
+        <v>1055049.94617</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1251818.17426</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1837380.37385</v>
+        <v>1838370.12136</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1693664.95953</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1695744.87318</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1699764.102</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15517.60764</v>
@@ -2567,7 +2678,7 @@
         <v>27057.59804</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>31220.65788</v>
+        <v>33372.43352000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>32959.90155</v>
@@ -2579,52 +2690,62 @@
         <v>89743.81462999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>81856.71618999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>82072.70664</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>58136.83</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>480145.53249</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>622705.6884300001</v>
+        <v>622052.0752400002</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1002812.605</v>
+        <v>1002039.73479</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1001083.64968</v>
+        <v>1000884.776</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>700453.5108500001</v>
+        <v>702224.0989700001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1201802.81596</v>
+        <v>1205316.99416</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1296841.47927</v>
+        <v>1359504.02828</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1549470.43872</v>
+        <v>1840975.96515</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2593994.90634</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3212309.12199</v>
+        <v>3212573.14219</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4362389.70129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4394509.192050001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>7761529.155</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>53980.67411</v>
@@ -2636,34 +2757,39 @@
         <v>70456.54900999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>69808.10299000001</v>
+        <v>69842.04241999998</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>219482.92475</v>
+        <v>219508.20455</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>171623.42452</v>
+        <v>171724.57132</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>398605.74209</v>
+        <v>426826.50225</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>153327.62951</v>
+        <v>181414.14753</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>315226.68678</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>365525.2825699999</v>
+        <v>365874.52816</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>350044.3036899999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>350899.4404199999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>483388.519</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3538.2066</v>
@@ -2681,13 +2807,13 @@
         <v>9932.34684</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>8820.917890000001</v>
+        <v>8820.917889999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2506.49492</v>
+        <v>2808.47175</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>9085.556430000001</v>
+        <v>9298.61895</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2958.42582</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>43624.10184</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>51520.97</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>50442.46750999999</v>
@@ -2711,76 +2842,86 @@
         <v>98729.18295999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>68395.22627</v>
+        <v>68395.22627000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>67283.20538</v>
+        <v>67317.14481</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>209550.57791</v>
+        <v>209575.85771</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>162802.50663</v>
+        <v>162903.65343</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>396099.2471699999</v>
+        <v>424018.0304999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>144242.07308</v>
+        <v>172115.52858</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>312268.26096</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>314422.17499</v>
+        <v>314771.42058</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>306420.20185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>307275.33858</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>431867.549</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>78008.83998</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>76330.16690000001</v>
+        <v>76330.1669</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>454912.90786</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>121721.03628</v>
+        <v>121742.14569</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>98206.99307</v>
+        <v>98279.69241</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>186105.72543</v>
+        <v>186145.84619</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>152073.40645</v>
+        <v>154652.08659</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>357137.8649099999</v>
+        <v>363320.83673</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>150120.61586</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>440278.72616</v>
+        <v>442348.73915</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>237431.96015</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>239144.21746</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>351142.636</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>640.0711799999999</v>
@@ -2801,25 +2942,30 @@
         <v>223.02339</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>461.7961199999999</v>
+        <v>631.66705</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>556.67725</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4207.57203</v>
+        <v>4207.572029999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1473.74629</v>
+        <v>1479.01557</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1912.64024</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1930.16278</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1966.646</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>7543.00635</v>
@@ -2828,7 +2974,7 @@
         <v>14965.34919</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>57162.11615</v>
+        <v>57162.11615000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>11403.5265</v>
@@ -2837,28 +2983,33 @@
         <v>6956.77796</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6198.27834</v>
+        <v>6204.59222</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11747.98035</v>
+        <v>12736.98122</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>18937.34516</v>
+        <v>19184.1693</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>9363.32055</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>26255.91593</v>
+        <v>26358.68285</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13266.2286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13363.88975</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13273.781</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>69825.76245000001</v>
@@ -2870,73 +3021,83 @@
         <v>396992.35742</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>109416.31136</v>
+        <v>109437.42077</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>91078.80111</v>
+        <v>91151.50044999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>179684.4237</v>
+        <v>179718.23058</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>139863.62998</v>
+        <v>141283.43832</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>337643.8425</v>
+        <v>343579.99018</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>136549.72328</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>412549.06394</v>
+        <v>414511.0407299999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>222253.09131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>223850.16493</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>335902.209</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>456117.3666199999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>646925.46613</v>
+        <v>646271.85294</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>618356.2461500001</v>
+        <v>617583.3759399999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>949170.71639</v>
+        <v>948984.67273</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>821729.44253</v>
+        <v>823452.6111099999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1187320.51505</v>
+        <v>1190895.71929</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1543373.81491</v>
+        <v>1631678.44394</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1345660.20332</v>
+        <v>1659069.27595</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2759100.97726</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3137555.6784</v>
+        <v>3136098.9312</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4475002.04483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4506264.415010001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7893775.038</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>120240.71658</v>
@@ -2948,70 +3109,78 @@
         <v>230787.96496</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>216046.68844</v>
+        <v>216057.15917</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>196707.82963</v>
+        <v>196895.16015</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>298991.83205</v>
+        <v>299492.15315</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>409075.8075100001</v>
+        <v>428141.6906200001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>356418.48843</v>
+        <v>369219.08452</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>457850.14295</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>845344.7117000001</v>
+        <v>847556.4850099999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>749239.1825499999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>753519.3773099999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1620047.914</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>335876.65004</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>506894.89005</v>
+        <v>506241.27686</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>387568.28119</v>
+        <v>386795.41098</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>733124.02795</v>
+        <v>732927.51356</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>625021.6128999999</v>
+        <v>626557.45096</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>888328.683</v>
+        <v>891403.5661400001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1134298.0074</v>
+        <v>1203536.75332</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>989241.7148900001</v>
+        <v>1289850.19143</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2301250.83431</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2292210.9667</v>
+        <v>2288542.44619</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3725762.86228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3752745.0377</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6273727.124</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>6753</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6646</v>
+        <v>6647</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6533</v>
+        <v>6536</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6038</v>
+        <v>6044</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5177</v>
+        <v>5182</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4930</v>
+        <v>4944</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5000</v>
+        <v>5040</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5089</v>
+        <v>5146</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>5399</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5179</v>
+        <v>5702</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5287</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6011</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>